--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mykola_1_2/Downloads/Safari Download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mykola_1_2/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C18590-BB7B-914F-945A-D16E8C6BE05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACE447F-9399-2748-B17D-DF030FF4F74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="480" windowWidth="19000" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="500" windowWidth="19000" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">Exposure of API </t>
-  </si>
-  <si>
-    <t>Y?</t>
   </si>
   <si>
     <t xml:space="preserve">Caching and Cookie management </t>
@@ -166,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,12 +185,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -280,15 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -310,15 +292,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,9 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,9 +320,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,14 +629,14 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="24" customWidth="1"/>
     <col min="4" max="4" width="40.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="1"/>
@@ -676,7 +649,7 @@
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -691,33 +664,32 @@
         <v>3</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="25"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="5"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="14" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -728,65 +700,79 @@
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -795,183 +781,165 @@
       <c r="B12" s="2">
         <v>20</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>10</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="2">
         <v>30</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="5"/>
+      <c r="C17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="11" t="s">
+      <c r="A18" s="5"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="11" t="s">
+      <c r="A19" s="5"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="11" t="s">
+      <c r="A20" s="5"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="11" t="s">
+      <c r="A21" s="5"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="11" t="s">
+      <c r="A22" s="5"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="10">
-        <v>20</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="5"/>
+      <c r="C25" s="19"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="5"/>
+      <c r="C26" s="19"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="5"/>
+      <c r="C27" s="19"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="5"/>
+      <c r="C28" s="19"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="19"/>
+      <c r="A29" s="5"/>
+      <c r="C29" s="19"/>
+      <c r="E29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
